--- a/biology/Botanique/George_Benson_Hall_(fils)/George_Benson_Hall_(fils).xlsx
+++ b/biology/Botanique/George_Benson_Hall_(fils)/George_Benson_Hall_(fils).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Benson Hall, né en 1810 à Amherstburg et mort le 4 septembre 1876 à Beauport, est un homme d'affaires canadien. Il est l'un des plus importants marchands de bois du Canada au XIXe siècle.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de George Benson Hall (père), militaire et entrepreneur du Haut-Canada, et d'Angelica Fortier.
-En 1843, il épouse Mary Jane Patterson, fille de Peter Patterson, propriétaire de la seigneurie de Beauport et important marchand de bois. Son mariage lui assure un emploi dans l'entreprise de son beau-père. À son décès, il hérite par sa femme de ce commerce florissant et qu'il continuera à faire prospérer. Sous sa direction, le moulin Hall de la chute Montmorency atteint un âge d'or grâce au Traité de réciprocité canado-américain. En 1876, son seul commerce permet de faire vivre environ 800 familles à Beauport[1].
+En 1843, il épouse Mary Jane Patterson, fille de Peter Patterson, propriétaire de la seigneurie de Beauport et important marchand de bois. Son mariage lui assure un emploi dans l'entreprise de son beau-père. À son décès, il hérite par sa femme de ce commerce florissant et qu'il continuera à faire prospérer. Sous sa direction, le moulin Hall de la chute Montmorency atteint un âge d'or grâce au Traité de réciprocité canado-américain. En 1876, son seul commerce permet de faire vivre environ 800 familles à Beauport.
 Il est échevin au conseil municipal de Québec de 1853 à 1862.
-Selon le journal québécois Morning Chronicle, Hall est « l'un des citoyens les plus éminents et les plus actifs de Québec [...] estimé surtout pour sa bienveillance et sa bonté »[2].
+Selon le journal québécois Morning Chronicle, Hall est « l'un des citoyens les plus éminents et les plus actifs de Québec [...] estimé surtout pour sa bienveillance et sa bonté ».
 Il est inhumé le 7 septembre 1876 au cimetière Mount Hermon.
 </t>
         </is>
